--- a/bom.xlsx
+++ b/bom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27960" windowHeight="12855"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27960" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="156">
   <si>
     <t>Nazwa</t>
   </si>
@@ -442,6 +442,48 @@
   </si>
   <si>
     <t>DRV8836</t>
+  </si>
+  <si>
+    <t>39n</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>M1206</t>
+  </si>
+  <si>
+    <t>M0603</t>
+  </si>
+  <si>
+    <t>1206M</t>
+  </si>
+  <si>
+    <t>BXT520P02M</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/bxt520p02m/tranzystory-z-kanalem-p-smd/bridgelux/</t>
+  </si>
+  <si>
+    <t>STM32F411RCTx</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/dtsm-66n-v-b/mikroprzelaczniki-tact/diptronics/</t>
+  </si>
+  <si>
+    <t>ENCODER</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/ec11e20-20p20c-sw/enkodery-inkrementalne/sr-passives/</t>
+  </si>
+  <si>
+    <t>JOYSTICK</t>
+  </si>
+  <si>
+    <t>SMA</t>
   </si>
 </sst>
 </file>
@@ -541,13 +583,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,6 +607,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -860,1452 +908,1500 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="0.25" customWidth="1"/>
+    <col min="8" max="9" width="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="2"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="2"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="2"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="2"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="2"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="2"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="2"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="2"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="2"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="2"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="2"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="2"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="2"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="2"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="2"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="2"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="2"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="2"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="2"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="2"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="2"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="2"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="2"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="2"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="2"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="2"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="3"/>
       <c r="E46" s="2">
         <v>1</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="2"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2">
         <v>3</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="2"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="3"/>
       <c r="E48" s="2">
         <v>1</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="2"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="3"/>
       <c r="E49" s="2">
         <v>3</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="2"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="3"/>
       <c r="E50" s="2">
         <v>1</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="2"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="3"/>
       <c r="E51" s="2">
         <v>1</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="2"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="3"/>
       <c r="E52" s="2">
         <v>1</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="2"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="3"/>
       <c r="E53" s="2">
         <v>1</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="2"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="3"/>
       <c r="E54" s="2">
         <v>2</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="2"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="3"/>
       <c r="E55" s="2">
         <v>2</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="2"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="3"/>
       <c r="E56" s="2">
         <v>1</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="2"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="3"/>
       <c r="E57" s="2">
         <v>1</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="2"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="2"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="2"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="2"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="2"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E62" s="2">
         <v>3</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="2"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="2"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="3"/>
       <c r="E64" s="2">
         <v>1</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="2"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="3"/>
       <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="2"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="3"/>
       <c r="E66" s="2">
         <v>1</v>
       </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="2"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
       </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="2"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="2"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="2"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E70" s="2">
         <v>2</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="2"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="3"/>
       <c r="E71" s="2">
         <v>1</v>
       </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="2"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="3"/>
       <c r="E72" s="2">
         <v>1</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="2"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="3"/>
       <c r="E73" s="2">
         <v>1</v>
       </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="2"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="3"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="2"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="F24:I24"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="A12:C12"/>
@@ -2322,62 +2418,74 @@
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="F62:I62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
@@ -2432,18 +2540,1555 @@
     <hyperlink ref="F70" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="2.875" customWidth="1"/>
+    <col min="8" max="9" width="9" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2">
+        <v>2</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="2">
+        <v>2</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="147">
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F4:I4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F12" r:id="rId8"/>
+    <hyperlink ref="F13" r:id="rId9"/>
+    <hyperlink ref="F14" r:id="rId10"/>
+    <hyperlink ref="F15" r:id="rId11"/>
+    <hyperlink ref="F16" r:id="rId12"/>
+    <hyperlink ref="F17" r:id="rId13"/>
+    <hyperlink ref="F20" r:id="rId14"/>
+    <hyperlink ref="F21" r:id="rId15"/>
+    <hyperlink ref="F25" r:id="rId16"/>
+    <hyperlink ref="F26" r:id="rId17"/>
+    <hyperlink ref="F27" r:id="rId18"/>
+    <hyperlink ref="F28" r:id="rId19"/>
+    <hyperlink ref="F29" r:id="rId20"/>
+    <hyperlink ref="F30" r:id="rId21"/>
+    <hyperlink ref="F34" r:id="rId22"/>
+    <hyperlink ref="F35" r:id="rId23"/>
+    <hyperlink ref="F36" r:id="rId24"/>
+    <hyperlink ref="F42" r:id="rId25"/>
+    <hyperlink ref="F44" r:id="rId26"/>
+    <hyperlink ref="F47" r:id="rId27"/>
+    <hyperlink ref="F49" r:id="rId28"/>
+    <hyperlink ref="F51" r:id="rId29"/>
+    <hyperlink ref="F59" r:id="rId30"/>
+    <hyperlink ref="F60" r:id="rId31"/>
+    <hyperlink ref="F66" r:id="rId32"/>
+    <hyperlink ref="F73" r:id="rId33"/>
+    <hyperlink ref="F33" r:id="rId34"/>
+    <hyperlink ref="F61" r:id="rId35"/>
+    <hyperlink ref="F65" r:id="rId36"/>
+    <hyperlink ref="F68" r:id="rId37"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/bom.xlsx
+++ b/bom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="158">
   <si>
     <t>Nazwa</t>
   </si>
@@ -48,9 +48,6 @@
     <t>22u 10V</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/zrb18ar61a226me01l/kondensatory-mlcc-smd/murata/</t>
-  </si>
-  <si>
     <t>100n 10V</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>1k</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/wf06p-18k-5%25/rezystory-smd/walsin/wf06p183jtl/</t>
-  </si>
-  <si>
     <t>18k</t>
   </si>
   <si>
@@ -444,9 +438,6 @@
     <t>DRV8836</t>
   </si>
   <si>
-    <t>39n</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -484,6 +475,21 @@
   </si>
   <si>
     <t>SMA</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/0805x226m100ct/kondensatory-mlcc-smd/walsin/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/smd0603-18k-1%25/rezystory-smd/royal-ohm/0603saf1802t5e/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/fyls-0603urc/diody-led-smd-kolorowe/foryard/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/fyls-0603ubc/diody-led-smd-kolorowe/foryard/</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -583,13 +589,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,8 +620,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -922,1425 +940,1433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>18</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="5" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="3" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="5" t="s">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="5" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="5" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="3" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="5" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="5" t="s">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="5" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="3" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="3"/>
       <c r="E46" s="2">
         <v>1</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="F46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2">
         <v>3</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="F47" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="3"/>
       <c r="E48" s="2">
         <v>1</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="F48" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="3"/>
       <c r="E49" s="2">
         <v>3</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="F49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="3"/>
       <c r="E50" s="2">
         <v>1</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="A51" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="3"/>
       <c r="E51" s="2">
         <v>1</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="4"/>
+      <c r="F51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="A52" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="3"/>
       <c r="E52" s="2">
         <v>1</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="F52" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="A53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="3"/>
       <c r="E53" s="2">
         <v>1</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="F53" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="A54" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="3"/>
       <c r="E54" s="2">
         <v>2</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="F54" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="3"/>
       <c r="E55" s="2">
         <v>2</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="F55" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="A56" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="3"/>
       <c r="E56" s="2">
         <v>1</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
       <c r="J56" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="A57" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="3"/>
       <c r="E57" s="2">
         <v>1</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2">
         <v>3</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="F62" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="3" t="s">
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="3"/>
       <c r="E64" s="2">
         <v>1</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="A65" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="3"/>
       <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
       <c r="J65" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="A66" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="3"/>
       <c r="E66" s="2">
         <v>1</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
       <c r="J66" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="3" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1</v>
-      </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1</v>
-      </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E70" s="2">
         <v>2</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="F70" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="A71" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="3"/>
       <c r="E71" s="2">
         <v>1</v>
       </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
       <c r="J71" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+      <c r="A72" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="3"/>
       <c r="E72" s="2">
         <v>1</v>
       </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="A73" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="3"/>
       <c r="E73" s="2">
         <v>1</v>
       </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="3"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
       <c r="J74" s="4"/>
     </row>
   </sheetData>
@@ -2378,6 +2404,8 @@
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="F34:I34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="F35:I35"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="A30:C30"/>
@@ -2388,8 +2416,6 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="F28:I28"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="F35:I35"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A21:C21"/>
@@ -2402,10 +2428,6 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:I12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="A19:C19"/>
@@ -2418,6 +2440,16 @@
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="F51:I51"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="A7:C7"/>
@@ -2428,16 +2460,10 @@
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="F52:I52"/>
     <mergeCell ref="A53:C53"/>
@@ -2448,7 +2474,6 @@
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="F50:I50"/>
-    <mergeCell ref="A63:C63"/>
     <mergeCell ref="F63:I63"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="F64:I64"/>
@@ -2486,6 +2511,7 @@
     <mergeCell ref="F67:I67"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="F62:I62"/>
+    <mergeCell ref="A63:C63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
@@ -2538,9 +2564,11 @@
     <hyperlink ref="F62" r:id="rId48"/>
     <hyperlink ref="F63" r:id="rId49"/>
     <hyperlink ref="F70" r:id="rId50"/>
+    <hyperlink ref="F40" r:id="rId51"/>
+    <hyperlink ref="F41" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -2548,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2559,1348 +2587,1357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="10" t="s">
-        <v>143</v>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="10" t="s">
-        <v>143</v>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="10" t="s">
-        <v>143</v>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="10" t="s">
-        <v>143</v>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="10"/>
+      <c r="F13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="10" t="s">
-        <v>147</v>
+      <c r="F17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="2">
         <v>4</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
+      <c r="A31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="5" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
+      <c r="A38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="F42" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="3"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="3" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2">
         <v>1</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="F47" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="3"/>
       <c r="E48" s="2">
         <v>1</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="3"/>
       <c r="E49" s="2">
         <v>1</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="F49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="3"/>
       <c r="E50" s="2">
         <v>1</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="A51" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="3"/>
       <c r="E51" s="2">
         <v>1</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="F51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="3"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="3"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="3"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="A57" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="3"/>
       <c r="E57" s="2">
         <v>1</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="5" t="s">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="A61" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
       </c>
-      <c r="F61" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="F61" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="3"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="9"/>
+      <c r="A64" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="A65" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2">
         <v>2</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+      <c r="F65" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="3" t="s">
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E66" s="2">
-        <v>1</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="3"/>
       <c r="E67" s="2">
         <v>1</v>
       </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="A68" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="3"/>
       <c r="E68" s="2">
         <v>2</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="F68" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="A69" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="3"/>
       <c r="E69" s="2">
         <v>1</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
       <c r="J69" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="3" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E70" s="2">
-        <v>1</v>
-      </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1</v>
-      </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E73" s="2">
         <v>2</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="F73" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="A74" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="3"/>
       <c r="E74" s="2">
         <v>1</v>
       </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
       <c r="J74" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="A75" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="3"/>
       <c r="E75" s="2">
         <v>2</v>
       </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
       <c r="J75" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="3"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="3"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
       <c r="J77" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="F63:I63"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="A64:J64"/>
@@ -3944,6 +3981,7 @@
     <mergeCell ref="F59:I59"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F63:I63"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="F54:I54"/>
     <mergeCell ref="A55:C55"/>
@@ -4017,8 +4055,6 @@
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="F14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="A16:C16"/>
@@ -4029,10 +4065,6 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="F9:I9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="A5:C5"/>
@@ -4041,12 +4073,18 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="F9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
@@ -4086,9 +4124,12 @@
     <hyperlink ref="F61" r:id="rId35"/>
     <hyperlink ref="F65" r:id="rId36"/>
     <hyperlink ref="F68" r:id="rId37"/>
+    <hyperlink ref="F37" r:id="rId38"/>
+    <hyperlink ref="F41" r:id="rId39"/>
+    <hyperlink ref="F40" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
